--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H2">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I2">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J2">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.256997</v>
+        <v>0.036265</v>
       </c>
       <c r="N2">
-        <v>0.770991</v>
+        <v>0.108795</v>
       </c>
       <c r="O2">
-        <v>0.09332919661870788</v>
+        <v>0.01355203857625555</v>
       </c>
       <c r="P2">
-        <v>0.09598223150213447</v>
+        <v>0.01408386342270698</v>
       </c>
       <c r="Q2">
-        <v>0.8463660784583332</v>
+        <v>0.08809451490833332</v>
       </c>
       <c r="R2">
-        <v>7.617294706125</v>
+        <v>0.792850634175</v>
       </c>
       <c r="S2">
-        <v>0.01508061323069258</v>
+        <v>0.001493616544798979</v>
       </c>
       <c r="T2">
-        <v>0.01603291349289465</v>
+        <v>0.001561059253108246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H3">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I3">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J3">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.777525</v>
       </c>
       <c r="O3">
-        <v>0.8204258717847656</v>
+        <v>0.8442417413625294</v>
       </c>
       <c r="P3">
-        <v>0.8437478174991718</v>
+        <v>0.8773724568590661</v>
       </c>
       <c r="Q3">
-        <v>7.440122201041667</v>
+        <v>5.487961552958333</v>
       </c>
       <c r="R3">
-        <v>66.961099809375</v>
+        <v>49.39165397662499</v>
       </c>
       <c r="S3">
-        <v>0.132568646308906</v>
+        <v>0.09304677120077851</v>
       </c>
       <c r="T3">
-        <v>0.1409400006237827</v>
+        <v>0.09724820179624491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H4">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I4">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J4">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.009148333333333333</v>
+        <v>0.058485</v>
       </c>
       <c r="N4">
-        <v>0.027445</v>
+        <v>0.175455</v>
       </c>
       <c r="O4">
-        <v>0.003322243451869656</v>
+        <v>0.02185553498227784</v>
       </c>
       <c r="P4">
-        <v>0.003416683649453859</v>
+        <v>0.02271321528407604</v>
       </c>
       <c r="Q4">
-        <v>0.03012812993055556</v>
+        <v>0.142071079675</v>
       </c>
       <c r="R4">
-        <v>0.271153169375</v>
+        <v>1.278639717075</v>
       </c>
       <c r="S4">
-        <v>0.0005368252419501108</v>
+        <v>0.002408773297189253</v>
       </c>
       <c r="T4">
-        <v>0.0005707243156048434</v>
+        <v>0.0025175389609275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H5">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I5">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J5">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.228341</v>
+        <v>0.3031455</v>
       </c>
       <c r="N5">
-        <v>0.456682</v>
+        <v>0.606291</v>
       </c>
       <c r="O5">
-        <v>0.08292268814465686</v>
+        <v>0.1132838690257349</v>
       </c>
       <c r="P5">
-        <v>0.05685326734923985</v>
+        <v>0.07848632417313696</v>
       </c>
       <c r="Q5">
-        <v>0.7519935124583333</v>
+        <v>0.7363975119025</v>
       </c>
       <c r="R5">
-        <v>4.51196107475</v>
+        <v>4.418385071415</v>
       </c>
       <c r="S5">
-        <v>0.01339907588691532</v>
+        <v>0.01248540284796247</v>
       </c>
       <c r="T5">
-        <v>0.00949679438509933</v>
+        <v>0.008699445522553901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.839091333333334</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H6">
-        <v>8.517274</v>
+        <v>7.287565</v>
       </c>
       <c r="I6">
-        <v>0.1392998482012507</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J6">
-        <v>0.1440027465311282</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.256997</v>
+        <v>0.01891066666666667</v>
       </c>
       <c r="N6">
-        <v>0.770991</v>
+        <v>0.056732</v>
       </c>
       <c r="O6">
-        <v>0.09332919661870788</v>
+        <v>0.007066816053202168</v>
       </c>
       <c r="P6">
-        <v>0.09598223150213447</v>
+        <v>0.007344140261013945</v>
       </c>
       <c r="Q6">
-        <v>0.7296379553926666</v>
+        <v>0.04593757084222222</v>
       </c>
       <c r="R6">
-        <v>6.566741598534001</v>
+        <v>0.41343813758</v>
       </c>
       <c r="S6">
-        <v>0.01300074292173068</v>
+        <v>0.0007788579789469706</v>
       </c>
       <c r="T6">
-        <v>0.01382170495449394</v>
+        <v>0.0008140265044104694</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>8.517274</v>
       </c>
       <c r="I7">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J7">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.259175</v>
+        <v>0.036265</v>
       </c>
       <c r="N7">
-        <v>6.777525</v>
+        <v>0.108795</v>
       </c>
       <c r="O7">
-        <v>0.8204258717847656</v>
+        <v>0.01355203857625555</v>
       </c>
       <c r="P7">
-        <v>0.8437478174991718</v>
+        <v>0.01408386342270698</v>
       </c>
       <c r="Q7">
-        <v>6.414004162983334</v>
+        <v>0.1029596472033333</v>
       </c>
       <c r="R7">
-        <v>57.72603746685</v>
+        <v>0.9266368248300001</v>
       </c>
       <c r="S7">
-        <v>0.1142851993999966</v>
+        <v>0.001745650483115578</v>
       </c>
       <c r="T7">
-        <v>0.1215020030995259</v>
+        <v>0.00182447352290625</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>8.517274</v>
       </c>
       <c r="I8">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J8">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.009148333333333333</v>
+        <v>2.259175</v>
       </c>
       <c r="N8">
-        <v>0.027445</v>
+        <v>6.777525</v>
       </c>
       <c r="O8">
-        <v>0.003322243451869656</v>
+        <v>0.8442417413625294</v>
       </c>
       <c r="P8">
-        <v>0.003416683649453859</v>
+        <v>0.8773724568590661</v>
       </c>
       <c r="Q8">
-        <v>0.02597295388111111</v>
+        <v>6.414004162983334</v>
       </c>
       <c r="R8">
-        <v>0.23375658493</v>
+        <v>57.72603746685</v>
       </c>
       <c r="S8">
-        <v>0.0004627880085330421</v>
+        <v>0.1087475508118747</v>
       </c>
       <c r="T8">
-        <v>0.0004920118295493543</v>
+        <v>0.1136579338511437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>8.517274</v>
       </c>
       <c r="I9">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J9">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.228341</v>
+        <v>0.058485</v>
       </c>
       <c r="N9">
-        <v>0.456682</v>
+        <v>0.175455</v>
       </c>
       <c r="O9">
-        <v>0.08292268814465686</v>
+        <v>0.02185553498227784</v>
       </c>
       <c r="P9">
-        <v>0.05685326734923985</v>
+        <v>0.02271321528407604</v>
       </c>
       <c r="Q9">
-        <v>0.6482809541446668</v>
+        <v>0.16604425663</v>
       </c>
       <c r="R9">
-        <v>3.889685724868</v>
+        <v>1.49439830967</v>
       </c>
       <c r="S9">
-        <v>0.01155111787099035</v>
+        <v>0.002815231449193839</v>
       </c>
       <c r="T9">
-        <v>0.008187026647559055</v>
+        <v>0.002942350309862734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.486612666666666</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H10">
-        <v>19.459838</v>
+        <v>8.517274</v>
       </c>
       <c r="I10">
-        <v>0.3182652664949993</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J10">
-        <v>0.3290102113717155</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.256997</v>
+        <v>0.3031455</v>
       </c>
       <c r="N10">
-        <v>0.770991</v>
+        <v>0.606291</v>
       </c>
       <c r="O10">
-        <v>0.09332919661870788</v>
+        <v>0.1132838690257349</v>
       </c>
       <c r="P10">
-        <v>0.09598223150213447</v>
+        <v>0.07848632417313696</v>
       </c>
       <c r="Q10">
-        <v>1.667039995495333</v>
+        <v>0.8606577617890001</v>
       </c>
       <c r="R10">
-        <v>15.003359959458</v>
+        <v>5.163946570734001</v>
       </c>
       <c r="S10">
-        <v>0.02970344163361725</v>
+        <v>0.01459219877372987</v>
       </c>
       <c r="T10">
-        <v>0.03157913427444619</v>
+        <v>0.01016739626523602</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.486612666666666</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H11">
-        <v>19.459838</v>
+        <v>8.517274</v>
       </c>
       <c r="I11">
-        <v>0.3182652664949993</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J11">
-        <v>0.3290102113717155</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.259175</v>
+        <v>0.01891066666666667</v>
       </c>
       <c r="N11">
-        <v>6.777525</v>
+        <v>0.056732</v>
       </c>
       <c r="O11">
-        <v>0.8204258717847656</v>
+        <v>0.007066816053202168</v>
       </c>
       <c r="P11">
-        <v>0.8437478174991718</v>
+        <v>0.007344140261013945</v>
       </c>
       <c r="Q11">
-        <v>14.65439317121666</v>
+        <v>0.05368910984088889</v>
       </c>
       <c r="R11">
-        <v>131.88953854095</v>
+        <v>0.483201988568</v>
       </c>
       <c r="S11">
-        <v>0.2611130587229705</v>
+        <v>0.0009102830388171605</v>
       </c>
       <c r="T11">
-        <v>0.2776016477798262</v>
+        <v>0.000951385926756904</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.486612666666666</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H12">
-        <v>19.459838</v>
+        <v>24.587101</v>
       </c>
       <c r="I12">
-        <v>0.3182652664949993</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J12">
-        <v>0.3290102113717155</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.009148333333333333</v>
+        <v>0.036265</v>
       </c>
       <c r="N12">
-        <v>0.027445</v>
+        <v>0.108795</v>
       </c>
       <c r="O12">
-        <v>0.003322243451869656</v>
+        <v>0.01355203857625555</v>
       </c>
       <c r="P12">
-        <v>0.003416683649453859</v>
+        <v>0.01408386342270698</v>
       </c>
       <c r="Q12">
-        <v>0.05934169487888888</v>
+        <v>0.2972170725883333</v>
       </c>
       <c r="R12">
-        <v>0.5340752539099999</v>
+        <v>2.674953653295</v>
       </c>
       <c r="S12">
-        <v>0.001057354697570562</v>
+        <v>0.00503922789604532</v>
       </c>
       <c r="T12">
-        <v>0.001124123809697099</v>
+        <v>0.005266769013128118</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.486612666666666</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H13">
-        <v>19.459838</v>
+        <v>24.587101</v>
       </c>
       <c r="I13">
-        <v>0.3182652664949993</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J13">
-        <v>0.3290102113717155</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.228341</v>
+        <v>2.259175</v>
       </c>
       <c r="N13">
-        <v>0.456682</v>
+        <v>6.777525</v>
       </c>
       <c r="O13">
-        <v>0.08292268814465686</v>
+        <v>0.8442417413625294</v>
       </c>
       <c r="P13">
-        <v>0.05685326734923985</v>
+        <v>0.8773724568590661</v>
       </c>
       <c r="Q13">
-        <v>1.481159622919333</v>
+        <v>18.51552130055833</v>
       </c>
       <c r="R13">
-        <v>8.886957737515999</v>
+        <v>166.639691705025</v>
       </c>
       <c r="S13">
-        <v>0.02639141144084094</v>
+        <v>0.3139252083840668</v>
       </c>
       <c r="T13">
-        <v>0.01870530550774606</v>
+        <v>0.3281001760715212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.996847</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H14">
-        <v>3.993694</v>
+        <v>24.587101</v>
       </c>
       <c r="I14">
-        <v>0.09797517984549614</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J14">
-        <v>0.06752194479182982</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.256997</v>
+        <v>0.058485</v>
       </c>
       <c r="N14">
-        <v>0.770991</v>
+        <v>0.175455</v>
       </c>
       <c r="O14">
-        <v>0.09332919661870788</v>
+        <v>0.02185553498227784</v>
       </c>
       <c r="P14">
-        <v>0.09598223150213447</v>
+        <v>0.02271321528407604</v>
       </c>
       <c r="Q14">
-        <v>0.513183688459</v>
+        <v>0.479325533995</v>
       </c>
       <c r="R14">
-        <v>3.079102130754</v>
+        <v>4.313929805955</v>
       </c>
       <c r="S14">
-        <v>0.009143944823553575</v>
+        <v>0.008126823204197173</v>
       </c>
       <c r="T14">
-        <v>0.006480906936483753</v>
+        <v>0.008493781489943416</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.195700333333333</v>
+      </c>
+      <c r="H15">
+        <v>24.587101</v>
+      </c>
+      <c r="I15">
+        <v>0.3718427945500777</v>
+      </c>
+      <c r="J15">
+        <v>0.3739576886720351</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.996847</v>
-      </c>
-      <c r="H15">
-        <v>3.993694</v>
-      </c>
-      <c r="I15">
-        <v>0.09797517984549614</v>
-      </c>
-      <c r="J15">
-        <v>0.06752194479182982</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.259175</v>
+        <v>0.3031455</v>
       </c>
       <c r="N15">
-        <v>6.777525</v>
+        <v>0.606291</v>
       </c>
       <c r="O15">
-        <v>0.8204258717847656</v>
+        <v>0.1132838690257349</v>
       </c>
       <c r="P15">
-        <v>0.8437478174991718</v>
+        <v>0.07848632417313696</v>
       </c>
       <c r="Q15">
-        <v>4.511226821225</v>
+        <v>2.4844896753985</v>
       </c>
       <c r="R15">
-        <v>27.06736092735</v>
+        <v>14.906938052391</v>
       </c>
       <c r="S15">
-        <v>0.08038137233801036</v>
+        <v>0.04212379043597426</v>
       </c>
       <c r="T15">
-        <v>0.05697149355140599</v>
+        <v>0.02935056438015038</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,25 +1399,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.996847</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H16">
-        <v>3.993694</v>
+        <v>24.587101</v>
       </c>
       <c r="I16">
-        <v>0.09797517984549614</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J16">
-        <v>0.06752194479182982</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.009148333333333333</v>
+        <v>0.01891066666666667</v>
       </c>
       <c r="N16">
-        <v>0.027445</v>
+        <v>0.056732</v>
       </c>
       <c r="O16">
-        <v>0.003322243451869656</v>
+        <v>0.007066816053202168</v>
       </c>
       <c r="P16">
-        <v>0.003416683649453859</v>
+        <v>0.007344140261013945</v>
       </c>
       <c r="Q16">
-        <v>0.01826782197166667</v>
+        <v>0.1549861571035555</v>
       </c>
       <c r="R16">
-        <v>0.10960693183</v>
+        <v>1.394875413932</v>
       </c>
       <c r="S16">
-        <v>0.0003254973996874514</v>
+        <v>0.002627744629794045</v>
       </c>
       <c r="T16">
-        <v>0.0002307011247495711</v>
+        <v>0.002746397717292011</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.996847</v>
+        <v>0.3739505</v>
       </c>
       <c r="H17">
-        <v>3.993694</v>
+        <v>0.747901</v>
       </c>
       <c r="I17">
-        <v>0.09797517984549614</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J17">
-        <v>0.06752194479182982</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.228341</v>
+        <v>0.036265</v>
       </c>
       <c r="N17">
-        <v>0.456682</v>
+        <v>0.108795</v>
       </c>
       <c r="O17">
-        <v>0.08292268814465686</v>
+        <v>0.01355203857625555</v>
       </c>
       <c r="P17">
-        <v>0.05685326734923985</v>
+        <v>0.01408386342270698</v>
       </c>
       <c r="Q17">
-        <v>0.455962040827</v>
+        <v>0.0135613148825</v>
       </c>
       <c r="R17">
-        <v>1.823848163308</v>
+        <v>0.08136788929500001</v>
       </c>
       <c r="S17">
-        <v>0.008124365284244747</v>
+        <v>0.0002299280982341223</v>
       </c>
       <c r="T17">
-        <v>0.003838843179190514</v>
+        <v>0.0001602068422660944</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.765308999999999</v>
+        <v>0.3739505</v>
       </c>
       <c r="H18">
-        <v>17.295927</v>
+        <v>0.747901</v>
       </c>
       <c r="I18">
-        <v>0.2828745447897898</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J18">
-        <v>0.292424664487945</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.256997</v>
+        <v>2.259175</v>
       </c>
       <c r="N18">
-        <v>0.770991</v>
+        <v>6.777525</v>
       </c>
       <c r="O18">
-        <v>0.09332919661870788</v>
+        <v>0.8442417413625294</v>
       </c>
       <c r="P18">
-        <v>0.09598223150213447</v>
+        <v>0.8773724568590661</v>
       </c>
       <c r="Q18">
-        <v>1.481667117073</v>
+        <v>0.8448196208375001</v>
       </c>
       <c r="R18">
-        <v>13.335004053657</v>
+        <v>5.068917725025</v>
       </c>
       <c r="S18">
-        <v>0.02640045400911378</v>
+        <v>0.01432366776032189</v>
       </c>
       <c r="T18">
-        <v>0.02806757184381594</v>
+        <v>0.009980292096415383</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.765308999999999</v>
+        <v>0.3739505</v>
       </c>
       <c r="H19">
-        <v>17.295927</v>
+        <v>0.747901</v>
       </c>
       <c r="I19">
-        <v>0.2828745447897898</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J19">
-        <v>0.292424664487945</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>2.259175</v>
+        <v>0.058485</v>
       </c>
       <c r="N19">
-        <v>6.777525</v>
+        <v>0.175455</v>
       </c>
       <c r="O19">
-        <v>0.8204258717847656</v>
+        <v>0.02185553498227784</v>
       </c>
       <c r="P19">
-        <v>0.8437478174991718</v>
+        <v>0.02271321528407604</v>
       </c>
       <c r="Q19">
-        <v>13.024841960075</v>
+        <v>0.0218704949925</v>
       </c>
       <c r="R19">
-        <v>117.223577640675</v>
+        <v>0.131222969955</v>
       </c>
       <c r="S19">
-        <v>0.232077595014882</v>
+        <v>0.0003708077988479979</v>
       </c>
       <c r="T19">
-        <v>0.2467326724446312</v>
+        <v>0.0002583674940006213</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,117 +1647,427 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.765308999999999</v>
+        <v>0.3739505</v>
       </c>
       <c r="H20">
-        <v>17.295927</v>
+        <v>0.747901</v>
       </c>
       <c r="I20">
-        <v>0.2828745447897898</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J20">
-        <v>0.292424664487945</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.009148333333333333</v>
+        <v>0.3031455</v>
       </c>
       <c r="N20">
-        <v>0.027445</v>
+        <v>0.606291</v>
       </c>
       <c r="O20">
-        <v>0.003322243451869656</v>
+        <v>0.1132838690257349</v>
       </c>
       <c r="P20">
-        <v>0.003416683649453859</v>
+        <v>0.07848632417313696</v>
       </c>
       <c r="Q20">
-        <v>0.05274296850166666</v>
+        <v>0.11336141129775</v>
       </c>
       <c r="R20">
-        <v>0.4746867165149999</v>
+        <v>0.4534456451910001</v>
       </c>
       <c r="S20">
-        <v>0.0009397781041284888</v>
+        <v>0.001922009328642827</v>
       </c>
       <c r="T20">
-        <v>0.0009991225698529921</v>
+        <v>0.0008927980753192028</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3739505</v>
+      </c>
+      <c r="H21">
+        <v>0.747901</v>
+      </c>
+      <c r="I21">
+        <v>0.01696631078345497</v>
+      </c>
+      <c r="J21">
+        <v>0.0113752056135249</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01891066666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.056732</v>
+      </c>
+      <c r="O21">
+        <v>0.007066816053202168</v>
+      </c>
+      <c r="P21">
+        <v>0.007344140261013945</v>
+      </c>
+      <c r="Q21">
+        <v>0.007071653255333333</v>
+      </c>
+      <c r="R21">
+        <v>0.042429919532</v>
+      </c>
+      <c r="S21">
+        <v>0.0001198977974081366</v>
+      </c>
+      <c r="T21">
+        <v>8.354110552360006E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.202836333333334</v>
+      </c>
+      <c r="H22">
+        <v>24.608509</v>
+      </c>
+      <c r="I22">
+        <v>0.3721665582400601</v>
+      </c>
+      <c r="J22">
+        <v>0.3742832938012893</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.036265</v>
+      </c>
+      <c r="N22">
+        <v>0.108795</v>
+      </c>
+      <c r="O22">
+        <v>0.01355203857625555</v>
+      </c>
+      <c r="P22">
+        <v>0.01408386342270698</v>
+      </c>
+      <c r="Q22">
+        <v>0.2974758596283333</v>
+      </c>
+      <c r="R22">
+        <v>2.677282736655</v>
+      </c>
+      <c r="S22">
+        <v>0.005043615554061551</v>
+      </c>
+      <c r="T22">
+        <v>0.005271354791298267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.202836333333334</v>
+      </c>
+      <c r="H23">
+        <v>24.608509</v>
+      </c>
+      <c r="I23">
+        <v>0.3721665582400601</v>
+      </c>
+      <c r="J23">
+        <v>0.3742832938012893</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.259175</v>
+      </c>
+      <c r="N23">
+        <v>6.777525</v>
+      </c>
+      <c r="O23">
+        <v>0.8442417413625294</v>
+      </c>
+      <c r="P23">
+        <v>0.8773724568590661</v>
+      </c>
+      <c r="Q23">
+        <v>18.53164277335834</v>
+      </c>
+      <c r="R23">
+        <v>166.784784960225</v>
+      </c>
+      <c r="S23">
+        <v>0.3141985432054875</v>
+      </c>
+      <c r="T23">
+        <v>0.3283858530437408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.202836333333334</v>
+      </c>
+      <c r="H24">
+        <v>24.608509</v>
+      </c>
+      <c r="I24">
+        <v>0.3721665582400601</v>
+      </c>
+      <c r="J24">
+        <v>0.3742832938012893</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.058485</v>
+      </c>
+      <c r="N24">
+        <v>0.175455</v>
+      </c>
+      <c r="O24">
+        <v>0.02185553498227784</v>
+      </c>
+      <c r="P24">
+        <v>0.02271321528407604</v>
+      </c>
+      <c r="Q24">
+        <v>0.4797428829550001</v>
+      </c>
+      <c r="R24">
+        <v>4.317685946595001</v>
+      </c>
+      <c r="S24">
+        <v>0.008133899232849575</v>
+      </c>
+      <c r="T24">
+        <v>0.008501177029341767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.765308999999999</v>
-      </c>
-      <c r="H21">
-        <v>17.295927</v>
-      </c>
-      <c r="I21">
-        <v>0.2828745447897898</v>
-      </c>
-      <c r="J21">
-        <v>0.292424664487945</v>
-      </c>
-      <c r="K21">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.202836333333334</v>
+      </c>
+      <c r="H25">
+        <v>24.608509</v>
+      </c>
+      <c r="I25">
+        <v>0.3721665582400601</v>
+      </c>
+      <c r="J25">
+        <v>0.3742832938012893</v>
+      </c>
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.228341</v>
-      </c>
-      <c r="N21">
-        <v>0.456682</v>
-      </c>
-      <c r="O21">
-        <v>0.08292268814465686</v>
-      </c>
-      <c r="P21">
-        <v>0.05685326734923985</v>
-      </c>
-      <c r="Q21">
-        <v>1.316456422369</v>
-      </c>
-      <c r="R21">
-        <v>7.898738534214</v>
-      </c>
-      <c r="S21">
-        <v>0.02345671766166551</v>
-      </c>
-      <c r="T21">
-        <v>0.0166252976296449</v>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3031455</v>
+      </c>
+      <c r="N25">
+        <v>0.606291</v>
+      </c>
+      <c r="O25">
+        <v>0.1132838690257349</v>
+      </c>
+      <c r="P25">
+        <v>0.07848632417313696</v>
+      </c>
+      <c r="Q25">
+        <v>2.4866529216865</v>
+      </c>
+      <c r="R25">
+        <v>14.919917530119</v>
+      </c>
+      <c r="S25">
+        <v>0.04216046763942551</v>
+      </c>
+      <c r="T25">
+        <v>0.02937611992987746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.202836333333334</v>
+      </c>
+      <c r="H26">
+        <v>24.608509</v>
+      </c>
+      <c r="I26">
+        <v>0.3721665582400601</v>
+      </c>
+      <c r="J26">
+        <v>0.3742832938012893</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.01891066666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.056732</v>
+      </c>
+      <c r="O26">
+        <v>0.007066816053202168</v>
+      </c>
+      <c r="P26">
+        <v>0.007344140261013945</v>
+      </c>
+      <c r="Q26">
+        <v>0.1551211036208889</v>
+      </c>
+      <c r="R26">
+        <v>1.396089932588</v>
+      </c>
+      <c r="S26">
+        <v>0.002630032608235856</v>
+      </c>
+      <c r="T26">
+        <v>0.00274878900703096</v>
       </c>
     </row>
   </sheetData>
